--- a/Documentation/InferenceRules.xlsx
+++ b/Documentation/InferenceRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahm.19\Desktop\Research\NARS-Python\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3617ED6-F47D-4711-BF43-B2517C6F2DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D4B7F3-6A94-44F5-8FA4-F7338237E6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="3045" windowWidth="16875" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>First-Order Syllogism</t>
   </si>
@@ -203,23 +203,119 @@
     <t>Decomposition Rules</t>
   </si>
   <si>
-    <t>Todo</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Structural Inference</t>
   </si>
   <si>
-    <t>Temporal Inference</t>
+    <t>Array Inference</t>
+  </si>
+  <si>
+    <t>{S1} &lt;-&gt; {S1}</t>
+  </si>
+  <si>
+    <t>{S2} --&gt; [t]</t>
+  </si>
+  <si>
+    <t>{S1} --&gt; [t]</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Used in Temporal Inference</t>
+  </si>
+  <si>
+    <t>(--,(M --&gt; T2))</t>
+  </si>
+  <si>
+    <t>(--,M --&gt; T1)</t>
+  </si>
+  <si>
+    <t>(--,M --&gt; (T1 - T2))</t>
+  </si>
+  <si>
+    <t>(--,(T2 --&gt; M))</t>
+  </si>
+  <si>
+    <t>(T2 --&gt; M)</t>
+  </si>
+  <si>
+    <t>(--,T2)</t>
+  </si>
+  <si>
+    <t>F_Deduction, F_Exemplification</t>
+  </si>
+  <si>
+    <t>F_Induction, F_Induction, F_Comparison</t>
+  </si>
+  <si>
+    <t>F_Contraposition</t>
+  </si>
+  <si>
+    <t>F_Conversion</t>
+  </si>
+  <si>
+    <t>F_Negation</t>
+  </si>
+  <si>
+    <t>Truth Value function</t>
+  </si>
+  <si>
+    <t>(--,T1)</t>
+  </si>
+  <si>
+    <t>(--,(T1 --&gt; M))</t>
+  </si>
+  <si>
+    <t>(T1 --&gt; M)</t>
+  </si>
+  <si>
+    <t>(--,M --&gt; (T2 - T1))</t>
+  </si>
+  <si>
+    <t>(--,(T1 | T2) --&gt;  M)</t>
+  </si>
+  <si>
+    <t>(M --&gt; (T1 | T2))</t>
+  </si>
+  <si>
+    <t>(--,M --&gt; T2)</t>
+  </si>
+  <si>
+    <t>(--,M --&gt; (T1 &amp; T2))</t>
+  </si>
+  <si>
+    <t>(T1 | T2) --&gt;  M</t>
+  </si>
+  <si>
+    <t>(--,(T1 ~ T2) --&gt;  M)</t>
+  </si>
+  <si>
+    <t>(--,(T2 ~ T1) --&gt;  M)</t>
+  </si>
+  <si>
+    <t>(--,(T1 &amp;&amp; T2))</t>
+  </si>
+  <si>
+    <t>(T1 &amp;&amp; T2)</t>
+  </si>
+  <si>
+    <t>({S1} --&gt; [t] &amp;/ {S2} --&gt; [t])</t>
+  </si>
+  <si>
+    <t>Array Comparison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +379,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,7 +484,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
@@ -389,6 +493,8 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="6" builtinId="29"/>
@@ -687,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,10 +805,12 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="54.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -714,21 +822,28 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -736,13 +851,17 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -750,13 +869,17 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -764,13 +887,17 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -778,16 +905,21 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -800,8 +932,12 @@
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -814,8 +950,12 @@
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -828,8 +968,9 @@
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -842,8 +983,9 @@
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -856,8 +998,9 @@
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -870,8 +1013,9 @@
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -884,8 +1028,9 @@
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -898,8 +1043,9 @@
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -912,16 +1058,18 @@
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -934,8 +1082,9 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -948,8 +1097,9 @@
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -962,8 +1112,9 @@
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -976,8 +1127,9 @@
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -990,8 +1142,9 @@
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1004,8 +1157,9 @@
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1018,8 +1172,9 @@
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1032,8 +1187,9 @@
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1046,16 +1202,18 @@
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1068,8 +1226,9 @@
       <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1082,8 +1241,14 @@
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1096,8 +1261,9 @@
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1110,8 +1276,9 @@
       <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1124,8 +1291,11 @@
       <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1138,8 +1308,9 @@
       <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1152,8 +1323,9 @@
       <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1166,8 +1338,9 @@
       <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1180,8 +1353,9 @@
       <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1194,8 +1368,9 @@
       <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1208,16 +1383,18 @@
       <c r="D38" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1230,8 +1407,9 @@
       <c r="D40" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1244,8 +1422,9 @@
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1258,8 +1437,9 @@
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1272,8 +1452,9 @@
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1286,173 +1467,436 @@
       <c r="D44" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>56</v>
-      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="9"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="9"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
